--- a/examples/cmTemplate.xlsx
+++ b/examples/cmTemplate.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="K-Matrix " sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="additionalCollumns" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'K-Matrix '!$A$1:$S$6</definedName>
@@ -22,8 +23,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="S1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Starting with this collumn any collumn from table ‚additionalCollumns‘ can be set direct</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -142,6 +167,63 @@
   </si>
   <si>
     <t xml:space="preserve">three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frame.size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frame.extended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frame.isframe_complex_multiplexed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frame.comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frame.pgn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frame.priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal.startBit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal.signalsize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal.is_little_endian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal.is_signed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal.factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal.min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal.max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal.unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal.comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal.multiplex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal.mux_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal.is_float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal.comments</t>
   </si>
 </sst>
 </file>
@@ -245,7 +327,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -268,6 +350,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -352,24 +438,24 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="S6" activeCellId="0" sqref="S6"/>
+      <selection pane="bottomLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.29959514170041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.9716599190283"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.29959514170041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="5.29959514170041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.9716599190283"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.8016194331984"/>
-    <col collapsed="false" hidden="false" max="15" min="10" style="0" width="5.29959514170041"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.30364372469636"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="26.9716599190283"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.336032388664"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.1821862348178"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.9109311740891"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.7004048582996"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.7004048582996"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="5.7004048582996"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="15" min="10" style="0" width="5.7004048582996"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.93927125506073"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.080971659919"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.0526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.7125506072874"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -687,5 +773,140 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B3:B23"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.7287449392713"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/examples/cmTemplate.xlsx
+++ b/examples/cmTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="K-Matrix " sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="S1" authorId="0">
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t xml:space="preserve">signal.offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal.max</t>
   </si>
   <si>
     <t xml:space="preserve">123h</t>
@@ -203,9 +206,6 @@
   </si>
   <si>
     <t xml:space="preserve">signal.min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signal.max</t>
   </si>
   <si>
     <t xml:space="preserve">signal.unit</t>
@@ -433,29 +433,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="U3" activeCellId="0" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.7004048582996"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.7004048582996"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="5.7004048582996"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="10" style="0" width="5.7004048582996"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.93927125506073"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.080971659919"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.0526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.7125506072874"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="10" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="29.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="25.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -519,13 +519,16 @@
       <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>100</v>
@@ -539,49 +542,52 @@
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>11</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>501</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>100</v>
@@ -595,49 +601,49 @@
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="n">
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>100</v>
@@ -651,49 +657,49 @@
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>100</v>
@@ -707,41 +713,41 @@
         <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,7 +774,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -784,30 +790,30 @@
   </sheetPr>
   <dimension ref="B3:B23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.7287449392713"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,42 +823,42 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,12 +868,12 @@
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,7 +909,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/examples/cmTemplate.xlsx
+++ b/examples/cmTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="K-Matrix " sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="S1" authorId="0">
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t xml:space="preserve">signal.offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal.max</t>
   </si>
   <si>
     <t xml:space="preserve">123h</t>
@@ -203,9 +206,6 @@
   </si>
   <si>
     <t xml:space="preserve">signal.min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signal.max</t>
   </si>
   <si>
     <t xml:space="preserve">signal.unit</t>
@@ -433,29 +433,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="U3" activeCellId="0" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.7004048582996"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.7004048582996"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="5.7004048582996"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="10" style="0" width="5.7004048582996"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.93927125506073"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.080971659919"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.0526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.7125506072874"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="10" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="29.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="25.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -519,13 +519,16 @@
       <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>100</v>
@@ -539,49 +542,52 @@
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>11</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>501</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>100</v>
@@ -595,49 +601,49 @@
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="n">
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>100</v>
@@ -651,49 +657,49 @@
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>100</v>
@@ -707,41 +713,41 @@
         <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,7 +774,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -784,30 +790,30 @@
   </sheetPr>
   <dimension ref="B3:B23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.7287449392713"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,42 +823,42 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,12 +868,12 @@
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,7 +909,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/examples/cmTemplate.xlsx
+++ b/examples/cmTemplate.xlsx
@@ -435,9 +435,9 @@
   </sheetPr>
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="U3" activeCellId="0" sqref="U3"/>
     </sheetView>
   </sheetViews>

--- a/examples/cmTemplate.xlsx
+++ b/examples/cmTemplate.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\local\pets\canmatrix\examples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="K-Matrix " sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="additionalCollumns" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="K-Matrix " sheetId="1" r:id="rId1"/>
+    <sheet name="additionalCollumns" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'K-Matrix '!$A$1:$S$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'K-Matrix '!$A$1:$S$6</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +43,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Starting with this collumn any collumn from table ‚additionalCollumns‘ can be set direct</t>
+          <t>Starting with this collumn any collumn from table ‚additionalCollumns‘ can be set direct</t>
         </r>
       </text>
     </comment>
@@ -48,81 +52,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frame Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cycle Time [ms]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Launch Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Launch Parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal Byte No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal Bit No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal Length [Bit]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal Default</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Frame Name</t>
+  </si>
+  <si>
+    <t>Cycle Time [ms]</t>
+  </si>
+  <si>
+    <t>Launch Type</t>
+  </si>
+  <si>
+    <t>Launch Parameter</t>
+  </si>
+  <si>
+    <t>Signal Byte No.</t>
+  </si>
+  <si>
+    <t>Signal Bit No.</t>
+  </si>
+  <si>
+    <t>Signal Name</t>
+  </si>
+  <si>
+    <t>Signal Function</t>
+  </si>
+  <si>
+    <t>Signal Length [Bit]</t>
+  </si>
+  <si>
+    <t>Signal Default</t>
   </si>
   <si>
     <t xml:space="preserve"> Signal Not Available</t>
   </si>
   <si>
-    <t xml:space="preserve">Byteorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testBU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recBU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name / Phys. Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Function / Increment Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frame.is_fd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signal.offset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signal.max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testFrame1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">someTestSignal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi
+    <t>Byteorder</t>
+  </si>
+  <si>
+    <t>testBU</t>
+  </si>
+  <si>
+    <t>recBU</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Name / Phys. Range</t>
+  </si>
+  <si>
+    <t>Function / Increment Unit</t>
+  </si>
+  <si>
+    <t>frame.is_fd</t>
+  </si>
+  <si>
+    <t>signal.offset</t>
+  </si>
+  <si>
+    <t>signal.max</t>
+  </si>
+  <si>
+    <t>123h</t>
+  </si>
+  <si>
+    <t>testFrame1</t>
+  </si>
+  <si>
+    <t>someTestSignal</t>
+  </si>
+  <si>
+    <t>Multi
 Line
 Signal comment with a-umlaut: ä</t>
   </si>
@@ -130,110 +134,110 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0..500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5  specialCharUnit°$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">someUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frame.size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frame.extended</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frame.isframe_complex_multiplexed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frame.comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frame.pgn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frame.priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signal.startBit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signal.signalsize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signal.is_little_endian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signal.is_signed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signal.factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signal.min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signal.unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signal.comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signal.multiplex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signal.mux_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signal.is_float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signal.comments</t>
+    <t>m</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>0..500</t>
+  </si>
+  <si>
+    <t>5  specialCharUnit°$</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>someUnit</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>frame.size</t>
+  </si>
+  <si>
+    <t>frame.extended</t>
+  </si>
+  <si>
+    <t>frame.isframe_complex_multiplexed</t>
+  </si>
+  <si>
+    <t>frame.comment</t>
+  </si>
+  <si>
+    <t>frame.pgn</t>
+  </si>
+  <si>
+    <t>frame.priority</t>
+  </si>
+  <si>
+    <t>signal.startBit</t>
+  </si>
+  <si>
+    <t>signal.signalsize</t>
+  </si>
+  <si>
+    <t>signal.is_little_endian</t>
+  </si>
+  <si>
+    <t>signal.is_signed</t>
+  </si>
+  <si>
+    <t>signal.factor</t>
+  </si>
+  <si>
+    <t>signal.min</t>
+  </si>
+  <si>
+    <t>signal.unit</t>
+  </si>
+  <si>
+    <t>signal.comment</t>
+  </si>
+  <si>
+    <t>signal.multiplex</t>
+  </si>
+  <si>
+    <t>signal.mux_value</t>
+  </si>
+  <si>
+    <t>signal.is_float</t>
+  </si>
+  <si>
+    <t>signal.comments</t>
+  </si>
+  <si>
+    <t>signal.initial_value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -242,22 +246,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
@@ -287,84 +276,46 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -423,42 +374,364 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:U6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="U3" activeCellId="0" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="10" style="0" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="29.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="25.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.71"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" customWidth="1"/>
+    <col min="10" max="15" width="5.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9" customWidth="1"/>
+    <col min="17" max="17" width="29" customWidth="1"/>
+    <col min="18" max="18" width="25.140625" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
+    <col min="20" max="1025" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:22" ht="134.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,32 +786,35 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>100</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -547,7 +823,7 @@
       <c r="I2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="2">
         <v>11</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -572,39 +848,39 @@
       <c r="R2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="S2" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="T2" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2">
         <v>501</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="3" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>100</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="2">
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="2">
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -622,7 +898,7 @@
       <c r="O3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -631,36 +907,39 @@
       <c r="R3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="S3" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="T3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="V3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>100</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="2">
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="2">
         <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -678,7 +957,7 @@
       <c r="O4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="2">
         <v>2</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -687,36 +966,39 @@
       <c r="R4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="S4" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="T4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="V4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>100</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2">
         <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="2">
         <v>3</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -734,7 +1016,7 @@
       <c r="O5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="2">
         <v>3</v>
       </c>
       <c r="Q5" s="2" t="s">
@@ -743,14 +1025,17 @@
       <c r="R5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="S5" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="T5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -772,145 +1057,142 @@
       <c r="S6" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B3:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>57</v>
       </c>
     </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
